--- a/advanced/test.xlsx
+++ b/advanced/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.ranjan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5F2C09A-A0DA-43E5-B83A-C5CA90F8D8D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{11CB4ABF-3751-436C-9C16-F1FFE7A18DAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{DAAAB77D-DF3D-48FC-904C-A30D95330D9B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
@@ -33,16 +33,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>prabhakar.devineni@accenture.com</t>
   </si>
   <si>
-    <t>Nov@2018</t>
+    <t>Dec@2018</t>
   </si>
   <si>
-    <t>Dec@2018</t>
+    <t>Novkkkkkkkkkkk</t>
   </si>
 </sst>
 </file>
@@ -87,9 +84,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,49 +403,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19435B3-3B56-4456-A2F2-7AB893628AE7}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{0352C1DD-5DF9-4D0E-AD7A-6103CD0759B8}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{3CD1D0C7-9D17-456D-BB9D-6551E3AF97B1}"/>
+    <hyperlink ref="B2" r:id="rId2" display="Nov@2018" xr:uid="{3CD1D0C7-9D17-456D-BB9D-6551E3AF97B1}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{75D4A145-569E-4B0B-9475-52D1A573CD2A}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{F44C4A79-CCAA-41B5-B3CE-587C8DAA78BB}"/>
   </hyperlinks>
